--- a/Pseudo Code/calculateInjuredHealthIncrease.xlsx
+++ b/Pseudo Code/calculateInjuredHealthIncrease.xlsx
@@ -65,15 +65,6 @@
     <t>begin if</t>
   </si>
   <si>
-    <t>injured = true</t>
-  </si>
-  <si>
-    <t>then generate randomHealthIncrease(1-10)</t>
-  </si>
-  <si>
-    <t>playerHealthyTest(randomHealthIncrease int, playerId int)</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -81,6 +72,15 @@
   </si>
   <si>
     <t>\\adds plyer health increase to players health and determains if player is healthy again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   injured = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then generate randomHealthIncrease(1-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    playerHealthyTest(randomHealthIncrease int, playerId int)</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,23 +528,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,52 +552,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
         <v>8</v>
